--- a/regionseng/2/employment and unemployment/employment and unemployment.xlsx
+++ b/regionseng/2/employment and unemployment/employment and unemployment.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>*The data for 2010-2019 are recalculated according to the International Labour Organization (ILO) standards adopted at the 20th International Conference of Labour Statisticians;
-The data for 2003-2009 are in line with the ILO's standards  adopted at the 13th International Conference of Labour Statisticians.</t>
   </si>
   <si>
     <r>
@@ -125,6 +121,10 @@
       <t>percentage</t>
     </r>
   </si>
+  <si>
+    <t>*The data for 2010-2019 are recalculated according to the International Labour Organization (ILO) standards adopted at the 19th and 20th International Conferences of Labour Statisticians;
+The data for 2003-2009 are in line with the ILO's standards  adopted at the 13th International Conference of Labour Statisticians.</t>
+  </si>
 </sst>
 </file>
 
@@ -232,12 +232,6 @@
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
-      <family val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -310,6 +304,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -383,10 +384,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -409,15 +410,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -432,27 +430,27 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
@@ -464,26 +462,65 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -811,111 +848,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="4" customWidth="1"/>
     <col min="2" max="16" width="8.7109375" style="4" customWidth="1"/>
-    <col min="17" max="20" width="8.7109375" customWidth="1"/>
+    <col min="17" max="21" width="8.7109375" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3"/>
+      <c r="A3" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
       <c r="V3"/>
       <c r="W3"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
       <c r="V4"/>
       <c r="W4"/>
     </row>
@@ -923,822 +963,899 @@
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="R5" s="8"/>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:23" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13">
         <v>2003</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>2004</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>2005</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>2006</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>2007</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>2008</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>2009</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <v>2010</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>2011</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <v>2012</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="13">
         <v>2013</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="13">
         <v>2014</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="13">
         <v>2015</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="13">
         <v>2016</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="13">
         <v>2017</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="13">
         <v>2018</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="13">
         <v>2019</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="13">
         <v>2020</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="13">
         <v>2021</v>
       </c>
+      <c r="U6" s="13">
+        <v>2022</v>
+      </c>
+      <c r="V6" s="13">
+        <v>2023</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>338.39916042177248</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>334.75425464349502</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>332.06684276282527</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>328.88546271987497</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>325.5777540480658</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>321.15486522141208</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>315.64100000000417</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>306.89899999999943</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <v>299.68460943333133</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <v>291.25161440047003</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <v>284.56847678377324</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="15">
         <v>279.91206625955812</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="15">
         <v>276.76690900859847</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="15">
         <v>272.46076934794581</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="15">
         <v>277.18368252225895</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="15">
         <v>274.15202387734877</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="14">
         <v>265.33631145413767</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="14">
         <v>266.16509145343514</v>
       </c>
-      <c r="T7" s="15">
+      <c r="T7" s="14">
         <v>266.11920573896089</v>
       </c>
+      <c r="U7" s="36">
+        <v>261.6870588009084</v>
+      </c>
+      <c r="V7" s="48">
+        <v>252.44165670814843</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="16">
+        <v>211.21072882316574</v>
+      </c>
+      <c r="C8" s="16">
+        <v>216.10291084393899</v>
+      </c>
+      <c r="D8" s="16">
+        <v>212.827148669628</v>
+      </c>
+      <c r="E8" s="16">
+        <v>202.50463458533605</v>
+      </c>
+      <c r="F8" s="16">
+        <v>207.58021215554857</v>
+      </c>
+      <c r="G8" s="16">
+        <v>218.25682143166406</v>
+      </c>
+      <c r="H8" s="16">
+        <v>214.10711811198814</v>
+      </c>
+      <c r="I8" s="16">
+        <v>154.35691764604468</v>
+      </c>
+      <c r="J8" s="15">
+        <v>166.14228714813331</v>
+      </c>
+      <c r="K8" s="17">
+        <v>166.6393051949224</v>
+      </c>
+      <c r="L8" s="17">
+        <v>157.61514524523687</v>
+      </c>
+      <c r="M8" s="17">
+        <v>151.19318349965417</v>
+      </c>
+      <c r="N8" s="17">
+        <v>153.1841765445489</v>
+      </c>
+      <c r="O8" s="17">
+        <v>147.54602162165011</v>
+      </c>
+      <c r="P8" s="17">
+        <v>145.94606074941785</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>139.70822546002492</v>
+      </c>
+      <c r="R8" s="16">
+        <v>135.91233994928567</v>
+      </c>
+      <c r="S8" s="16">
+        <v>127.55960049527621</v>
+      </c>
+      <c r="T8" s="16">
+        <v>125.56935895057237</v>
+      </c>
+      <c r="U8" s="37">
+        <v>127.61837803928003</v>
+      </c>
+      <c r="V8" s="49">
+        <v>125.01301431189074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15" customHeight="1">
+      <c r="A9" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16">
+        <v>196.4597646581588</v>
+      </c>
+      <c r="C9" s="16">
+        <v>197.16812776569296</v>
+      </c>
+      <c r="D9" s="16">
+        <v>195.9786195482003</v>
+      </c>
+      <c r="E9" s="16">
+        <v>186.96919915270374</v>
+      </c>
+      <c r="F9" s="16">
+        <v>186.06046035774554</v>
+      </c>
+      <c r="G9" s="16">
+        <v>189.51379192862646</v>
+      </c>
+      <c r="H9" s="16">
+        <v>183.77634416156675</v>
+      </c>
+      <c r="I9" s="16">
+        <v>117.60648563307592</v>
+      </c>
+      <c r="J9" s="18">
+        <v>117.96345765076377</v>
+      </c>
+      <c r="K9" s="17">
+        <v>116.85996369744129</v>
+      </c>
+      <c r="L9" s="17">
+        <v>112.83206020473327</v>
+      </c>
+      <c r="M9" s="17">
+        <v>113.48757359162784</v>
+      </c>
+      <c r="N9" s="17">
+        <v>118.93628374354188</v>
+      </c>
+      <c r="O9" s="17">
+        <v>118.56886212736568</v>
+      </c>
+      <c r="P9" s="17">
+        <v>123.89490127520939</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>112.90571593438622</v>
+      </c>
+      <c r="R9" s="16">
+        <v>114.25320751121119</v>
+      </c>
+      <c r="S9" s="16">
+        <v>107.28839009313967</v>
+      </c>
+      <c r="T9" s="16">
+        <v>105.84312379809255</v>
+      </c>
+      <c r="U9" s="37">
+        <v>113.63942742256593</v>
+      </c>
+      <c r="V9" s="49">
+        <v>109.71553623790669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15" customHeight="1">
+      <c r="A10" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="16">
+        <v>44.568014153052061</v>
+      </c>
+      <c r="C10" s="16">
+        <v>34.775747187990298</v>
+      </c>
+      <c r="D10" s="16">
+        <v>35.641799791510763</v>
+      </c>
+      <c r="E10" s="16">
+        <v>38.369603830808067</v>
+      </c>
+      <c r="F10" s="16">
+        <v>45.732338548857669</v>
+      </c>
+      <c r="G10" s="16">
+        <v>48.03517767980167</v>
+      </c>
+      <c r="H10" s="16">
+        <v>44.648977172907991</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="16">
+        <v>60.566969511096246</v>
+      </c>
+      <c r="T10" s="16">
+        <v>58.569218341156194</v>
+      </c>
+      <c r="U10" s="37">
+        <v>65.122408847506009</v>
+      </c>
+      <c r="V10" s="49">
+        <v>66.916365226251244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15" customHeight="1">
+      <c r="A11" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16">
+        <v>151.54784636662959</v>
+      </c>
+      <c r="C11" s="16">
+        <v>162.39238057770288</v>
+      </c>
+      <c r="D11" s="16">
+        <v>160.3368197566887</v>
+      </c>
+      <c r="E11" s="16">
+        <v>148.43522512577371</v>
+      </c>
+      <c r="F11" s="16">
+        <v>140.32812180888683</v>
+      </c>
+      <c r="G11" s="16">
+        <v>141.34190204386431</v>
+      </c>
+      <c r="H11" s="16">
+        <v>139.05831069328715</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="16">
+        <v>46.68856663977536</v>
+      </c>
+      <c r="T11" s="16">
+        <v>47.211939387579243</v>
+      </c>
+      <c r="U11" s="37">
+        <v>48.517018575059573</v>
+      </c>
+      <c r="V11" s="49">
+        <v>42.657924145913022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15" customHeight="1">
+      <c r="A12" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="16">
+        <v>0.34390413847689849</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.16437019612232395</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.1367122049587384</v>
+      </c>
+      <c r="H12" s="16">
+        <v>6.905629536831237E-2</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="16">
+        <v>3.2853942268560747E-2</v>
+      </c>
+      <c r="T12" s="16">
+        <v>6.1966069357113962E-2</v>
+      </c>
+      <c r="U12" s="37">
+        <v>0</v>
+      </c>
+      <c r="V12" s="49">
+        <v>0.14124686574269099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15" customHeight="1">
+      <c r="A13" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16">
+        <v>14.750964165007165</v>
+      </c>
+      <c r="C13" s="16">
+        <v>18.934783078246088</v>
+      </c>
+      <c r="D13" s="16">
+        <v>16.848529121427653</v>
+      </c>
+      <c r="E13" s="16">
+        <v>15.535435432632932</v>
+      </c>
+      <c r="F13" s="16">
+        <v>21.519751797802723</v>
+      </c>
+      <c r="G13" s="16">
+        <v>28.743029503036645</v>
+      </c>
+      <c r="H13" s="16">
+        <v>30.330773950420955</v>
+      </c>
+      <c r="I13" s="16">
+        <v>36.750432012968751</v>
+      </c>
+      <c r="J13" s="18">
+        <v>48.178829497369534</v>
+      </c>
+      <c r="K13" s="17">
+        <v>49.77934149748112</v>
+      </c>
+      <c r="L13" s="17">
+        <v>44.783085040503593</v>
+      </c>
+      <c r="M13" s="17">
+        <v>37.705609908026339</v>
+      </c>
+      <c r="N13" s="17">
+        <v>34.24789280100704</v>
+      </c>
+      <c r="O13" s="17">
+        <v>28.977159494284436</v>
+      </c>
+      <c r="P13" s="17">
+        <v>22.051159474208458</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>26.802509525638708</v>
+      </c>
+      <c r="R13" s="16">
+        <v>21.659132438074487</v>
+      </c>
+      <c r="S13" s="16">
+        <v>20.271210402136877</v>
+      </c>
+      <c r="T13" s="16">
+        <v>19.726235152479813</v>
+      </c>
+      <c r="U13" s="37">
+        <v>13.978950616714057</v>
+      </c>
+      <c r="V13" s="49">
+        <v>15.29747807398395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15" customHeight="1">
+      <c r="A14" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="16">
+        <v>127.18843159861217</v>
+      </c>
+      <c r="C14" s="16">
+        <v>118.65134379955494</v>
+      </c>
+      <c r="D14" s="16">
+        <v>119.23969409320198</v>
+      </c>
+      <c r="E14" s="16">
+        <v>126.38082813454292</v>
+      </c>
+      <c r="F14" s="16">
+        <v>117.99754189251357</v>
+      </c>
+      <c r="G14" s="16">
+        <v>102.89804378974623</v>
+      </c>
+      <c r="H14" s="16">
+        <v>101.53388188801803</v>
+      </c>
+      <c r="I14" s="16">
+        <v>152.54208235395475</v>
+      </c>
+      <c r="J14" s="18">
+        <v>133.54232228519805</v>
+      </c>
+      <c r="K14" s="17">
+        <v>124.61230920554763</v>
+      </c>
+      <c r="L14" s="17">
+        <v>126.95333153853637</v>
+      </c>
+      <c r="M14" s="17">
+        <v>128.71888275990395</v>
+      </c>
+      <c r="N14" s="17">
+        <v>123.58273246404956</v>
+      </c>
+      <c r="O14" s="17">
+        <v>124.91474772629572</v>
+      </c>
+      <c r="P14" s="17">
+        <v>131.23762177284109</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>134.44379841732385</v>
+      </c>
+      <c r="R14" s="16">
+        <v>129.42397150485198</v>
+      </c>
+      <c r="S14" s="16">
+        <v>138.60549095815992</v>
+      </c>
+      <c r="T14" s="16">
+        <v>140.54984678838849</v>
+      </c>
+      <c r="U14" s="37">
+        <v>134.06868076163269</v>
+      </c>
+      <c r="V14" s="49">
+        <v>127.42864239625931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15" customHeight="1">
+      <c r="A15" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="19">
+        <v>6.9840032498336173</v>
+      </c>
+      <c r="C15" s="19">
+        <v>8.7619287515844917</v>
+      </c>
+      <c r="D15" s="19">
+        <v>7.9165319024132863</v>
+      </c>
+      <c r="E15" s="19">
+        <v>7.6716443870257471</v>
+      </c>
+      <c r="F15" s="19">
+        <v>10.366957223108082</v>
+      </c>
+      <c r="G15" s="19">
+        <v>13.169361358098975</v>
+      </c>
+      <c r="H15" s="19">
+        <v>14.166167952695774</v>
+      </c>
+      <c r="I15" s="19">
+        <v>23.808736643239431</v>
+      </c>
+      <c r="J15" s="20">
+        <v>28.998535125746191</v>
+      </c>
+      <c r="K15" s="21">
+        <v>29.872509033359751</v>
+      </c>
+      <c r="L15" s="21">
+        <v>28.412932634630135</v>
+      </c>
+      <c r="M15" s="21">
+        <v>24.938696993646268</v>
+      </c>
+      <c r="N15" s="21">
+        <v>22.357330615703049</v>
+      </c>
+      <c r="O15" s="21">
+        <v>19.639404150516576</v>
+      </c>
+      <c r="P15" s="21">
+        <v>15.109115902805494</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>19.184632427607333</v>
+      </c>
+      <c r="R15" s="19">
+        <v>15.936104437725357</v>
+      </c>
+      <c r="S15" s="19">
+        <v>15.891559963679535</v>
+      </c>
+      <c r="T15" s="19">
+        <v>15.709433668642536</v>
+      </c>
+      <c r="U15" s="38">
+        <v>10.953712804915476</v>
+      </c>
+      <c r="V15" s="50">
+        <v>12.236708440465877</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15" customHeight="1">
+      <c r="A16" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="17">
-        <v>211.21072882316574</v>
-      </c>
-      <c r="C8" s="17">
-        <v>216.10291084393899</v>
-      </c>
-      <c r="D8" s="17">
-        <v>212.827148669628</v>
-      </c>
-      <c r="E8" s="17">
-        <v>202.50463458533605</v>
-      </c>
-      <c r="F8" s="17">
-        <v>207.58021215554857</v>
-      </c>
-      <c r="G8" s="17">
-        <v>218.25682143166406</v>
-      </c>
-      <c r="H8" s="17">
-        <v>214.10711811198814</v>
-      </c>
-      <c r="I8" s="17">
-        <v>154.35691764604468</v>
-      </c>
-      <c r="J8" s="16">
-        <v>166.14228714813331</v>
-      </c>
-      <c r="K8" s="18">
-        <v>166.6393051949224</v>
-      </c>
-      <c r="L8" s="18">
-        <v>157.61514524523687</v>
-      </c>
-      <c r="M8" s="18">
-        <v>151.19318349965417</v>
-      </c>
-      <c r="N8" s="18">
-        <v>153.1841765445489</v>
-      </c>
-      <c r="O8" s="18">
-        <v>147.54602162165011</v>
-      </c>
-      <c r="P8" s="18">
-        <v>145.94606074941785</v>
-      </c>
-      <c r="Q8" s="18">
-        <v>139.70822546002492</v>
-      </c>
-      <c r="R8" s="17">
-        <v>135.91233994928567</v>
-      </c>
-      <c r="S8" s="17">
-        <v>127.55960049527621</v>
-      </c>
-      <c r="T8" s="17">
-        <v>125.56935895057237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1">
-      <c r="A9" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="17">
-        <v>196.4597646581588</v>
-      </c>
-      <c r="C9" s="17">
-        <v>197.16812776569296</v>
-      </c>
-      <c r="D9" s="17">
-        <v>195.9786195482003</v>
-      </c>
-      <c r="E9" s="17">
-        <v>186.96919915270374</v>
-      </c>
-      <c r="F9" s="17">
-        <v>186.06046035774554</v>
-      </c>
-      <c r="G9" s="17">
-        <v>189.51379192862646</v>
-      </c>
-      <c r="H9" s="17">
-        <v>183.77634416156675</v>
-      </c>
-      <c r="I9" s="17">
-        <v>117.60648563307592</v>
-      </c>
-      <c r="J9" s="19">
-        <v>117.96345765076377</v>
-      </c>
-      <c r="K9" s="18">
-        <v>116.85996369744129</v>
-      </c>
-      <c r="L9" s="18">
-        <v>112.83206020473327</v>
-      </c>
-      <c r="M9" s="18">
-        <v>113.48757359162784</v>
-      </c>
-      <c r="N9" s="18">
-        <v>118.93628374354188</v>
-      </c>
-      <c r="O9" s="18">
-        <v>118.56886212736568</v>
-      </c>
-      <c r="P9" s="18">
-        <v>123.89490127520939</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>112.90571593438622</v>
-      </c>
-      <c r="R9" s="17">
-        <v>114.25320751121119</v>
-      </c>
-      <c r="S9" s="17">
-        <v>107.28839009313967</v>
-      </c>
-      <c r="T9" s="17">
-        <v>105.84312379809255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1">
-      <c r="A10" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="17">
-        <v>44.568014153052061</v>
-      </c>
-      <c r="C10" s="17">
-        <v>34.775747187990298</v>
-      </c>
-      <c r="D10" s="17">
-        <v>35.641799791510763</v>
-      </c>
-      <c r="E10" s="17">
-        <v>38.369603830808067</v>
-      </c>
-      <c r="F10" s="17">
-        <v>45.732338548857669</v>
-      </c>
-      <c r="G10" s="17">
-        <v>48.03517767980167</v>
-      </c>
-      <c r="H10" s="17">
-        <v>44.648977172907991</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="R10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="17">
-        <v>60.566969511096246</v>
-      </c>
-      <c r="T10" s="17">
-        <v>58.569218341156194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1">
-      <c r="A11" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="17">
-        <v>151.54784636662959</v>
-      </c>
-      <c r="C11" s="17">
-        <v>162.39238057770288</v>
-      </c>
-      <c r="D11" s="17">
-        <v>160.3368197566887</v>
-      </c>
-      <c r="E11" s="17">
-        <v>148.43522512577371</v>
-      </c>
-      <c r="F11" s="17">
-        <v>140.32812180888683</v>
-      </c>
-      <c r="G11" s="17">
-        <v>141.34190204386431</v>
-      </c>
-      <c r="H11" s="17">
-        <v>139.05831069328715</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" s="17">
-        <v>46.68856663977536</v>
-      </c>
-      <c r="T11" s="17">
-        <v>47.211939387579243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1">
-      <c r="A12" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="17">
-        <v>0.34390413847689849</v>
-      </c>
-      <c r="C12" s="17">
-        <v>0</v>
-      </c>
-      <c r="D12" s="17">
-        <v>0</v>
-      </c>
-      <c r="E12" s="17">
-        <v>0.16437019612232395</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0.1367122049587384</v>
-      </c>
-      <c r="H12" s="17">
-        <v>6.905629536831237E-2</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="S12" s="17">
-        <v>3.2853942268560747E-2</v>
-      </c>
-      <c r="T12" s="17">
-        <v>6.1966069357113962E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1">
-      <c r="A13" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="17">
-        <v>14.750964165007165</v>
-      </c>
-      <c r="C13" s="17">
-        <v>18.934783078246088</v>
-      </c>
-      <c r="D13" s="17">
-        <v>16.848529121427653</v>
-      </c>
-      <c r="E13" s="17">
-        <v>15.535435432632932</v>
-      </c>
-      <c r="F13" s="17">
-        <v>21.519751797802723</v>
-      </c>
-      <c r="G13" s="17">
-        <v>28.743029503036645</v>
-      </c>
-      <c r="H13" s="17">
-        <v>30.330773950420955</v>
-      </c>
-      <c r="I13" s="17">
-        <v>36.750432012968751</v>
-      </c>
-      <c r="J13" s="19">
-        <v>48.178829497369534</v>
-      </c>
-      <c r="K13" s="18">
-        <v>49.77934149748112</v>
-      </c>
-      <c r="L13" s="18">
-        <v>44.783085040503593</v>
-      </c>
-      <c r="M13" s="18">
-        <v>37.705609908026339</v>
-      </c>
-      <c r="N13" s="18">
-        <v>34.24789280100704</v>
-      </c>
-      <c r="O13" s="18">
-        <v>28.977159494284436</v>
-      </c>
-      <c r="P13" s="18">
-        <v>22.051159474208458</v>
-      </c>
-      <c r="Q13" s="18">
-        <v>26.802509525638708</v>
-      </c>
-      <c r="R13" s="17">
-        <v>21.659132438074487</v>
-      </c>
-      <c r="S13" s="17">
-        <v>20.271210402136877</v>
-      </c>
-      <c r="T13" s="17">
-        <v>19.726235152479813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1">
-      <c r="A14" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="17">
-        <v>127.18843159861217</v>
-      </c>
-      <c r="C14" s="17">
-        <v>118.65134379955494</v>
-      </c>
-      <c r="D14" s="17">
-        <v>119.23969409320198</v>
-      </c>
-      <c r="E14" s="17">
-        <v>126.38082813454292</v>
-      </c>
-      <c r="F14" s="17">
-        <v>117.99754189251357</v>
-      </c>
-      <c r="G14" s="17">
-        <v>102.89804378974623</v>
-      </c>
-      <c r="H14" s="17">
-        <v>101.53388188801803</v>
-      </c>
-      <c r="I14" s="17">
-        <v>152.54208235395475</v>
-      </c>
-      <c r="J14" s="19">
-        <v>133.54232228519805</v>
-      </c>
-      <c r="K14" s="18">
-        <v>124.61230920554763</v>
-      </c>
-      <c r="L14" s="18">
-        <v>126.95333153853637</v>
-      </c>
-      <c r="M14" s="18">
-        <v>128.71888275990395</v>
-      </c>
-      <c r="N14" s="18">
-        <v>123.58273246404956</v>
-      </c>
-      <c r="O14" s="18">
-        <v>124.91474772629572</v>
-      </c>
-      <c r="P14" s="18">
-        <v>131.23762177284109</v>
-      </c>
-      <c r="Q14" s="18">
-        <v>134.44379841732385</v>
-      </c>
-      <c r="R14" s="17">
-        <v>129.42397150485198</v>
-      </c>
-      <c r="S14" s="17">
-        <v>138.60549095815992</v>
-      </c>
-      <c r="T14" s="17">
-        <v>140.54984678838849</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15" customHeight="1">
-      <c r="A15" s="33" t="s">
+      <c r="B16" s="19">
+        <v>62.41467282599573</v>
+      </c>
+      <c r="C16" s="19">
+        <v>64.55568759658729</v>
+      </c>
+      <c r="D16" s="19">
+        <v>64.091659046379775</v>
+      </c>
+      <c r="E16" s="19">
+        <v>61.572996541296632</v>
+      </c>
+      <c r="F16" s="19">
+        <v>63.757492511267536</v>
+      </c>
+      <c r="G16" s="19">
+        <v>67.959992224060642</v>
+      </c>
+      <c r="H16" s="19">
+        <v>67.832479973129381</v>
+      </c>
+      <c r="I16" s="19">
+        <v>50.295673054016135</v>
+      </c>
+      <c r="J16" s="20">
+        <v>55.43904555602272</v>
+      </c>
+      <c r="K16" s="21">
+        <v>57.214894941592974</v>
+      </c>
+      <c r="L16" s="21">
+        <v>55.387422748514517</v>
+      </c>
+      <c r="M16" s="21">
+        <v>54.014528748273058</v>
+      </c>
+      <c r="N16" s="21">
+        <v>55.34772097331544</v>
+      </c>
+      <c r="O16" s="21">
+        <v>54.153125227810904</v>
+      </c>
+      <c r="P16" s="21">
+        <v>52.653193514628271</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>50.960129159042118</v>
+      </c>
+      <c r="R16" s="19">
+        <v>51.222668772486344</v>
+      </c>
+      <c r="S16" s="19">
+        <v>47.924992642242273</v>
+      </c>
+      <c r="T16" s="19">
+        <v>47.185380176485516</v>
+      </c>
+      <c r="U16" s="38">
+        <v>48.76755412516296</v>
+      </c>
+      <c r="V16" s="50">
+        <v>49.521547252567814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15" customHeight="1" thickBot="1">
+      <c r="A17" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="20">
-        <v>6.9840032498336173</v>
-      </c>
-      <c r="C15" s="20">
-        <v>8.7619287515844917</v>
-      </c>
-      <c r="D15" s="20">
-        <v>7.9165319024132863</v>
-      </c>
-      <c r="E15" s="20">
-        <v>7.6716443870257471</v>
-      </c>
-      <c r="F15" s="20">
-        <v>10.366957223108082</v>
-      </c>
-      <c r="G15" s="20">
-        <v>13.169361358098975</v>
-      </c>
-      <c r="H15" s="20">
-        <v>14.166167952695774</v>
-      </c>
-      <c r="I15" s="20">
-        <v>23.808736643239431</v>
-      </c>
-      <c r="J15" s="21">
-        <v>28.998535125746191</v>
-      </c>
-      <c r="K15" s="22">
-        <v>29.872509033359751</v>
-      </c>
-      <c r="L15" s="22">
-        <v>28.412932634630135</v>
-      </c>
-      <c r="M15" s="22">
-        <v>24.938696993646268</v>
-      </c>
-      <c r="N15" s="22">
-        <v>22.357330615703049</v>
-      </c>
-      <c r="O15" s="22">
-        <v>19.639404150516576</v>
-      </c>
-      <c r="P15" s="22">
-        <v>15.109115902805494</v>
-      </c>
-      <c r="Q15" s="22">
-        <v>19.184632427607333</v>
-      </c>
-      <c r="R15" s="20">
-        <v>15.936104437725357</v>
-      </c>
-      <c r="S15" s="20">
-        <v>15.891559963679535</v>
-      </c>
-      <c r="T15" s="20">
-        <v>15.709433668642536</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1">
-      <c r="A16" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="20">
-        <v>62.41467282599573</v>
-      </c>
-      <c r="C16" s="20">
-        <v>64.55568759658729</v>
-      </c>
-      <c r="D16" s="20">
-        <v>64.091659046379775</v>
-      </c>
-      <c r="E16" s="20">
-        <v>61.572996541296632</v>
-      </c>
-      <c r="F16" s="20">
-        <v>63.757492511267536</v>
-      </c>
-      <c r="G16" s="20">
-        <v>67.959992224060642</v>
-      </c>
-      <c r="H16" s="20">
-        <v>67.832479973129381</v>
-      </c>
-      <c r="I16" s="20">
-        <v>50.295673054016135</v>
-      </c>
-      <c r="J16" s="21">
-        <v>55.43904555602272</v>
-      </c>
-      <c r="K16" s="22">
-        <v>57.214894941592974</v>
-      </c>
-      <c r="L16" s="22">
-        <v>55.387422748514517</v>
-      </c>
-      <c r="M16" s="22">
-        <v>54.014528748273058</v>
-      </c>
-      <c r="N16" s="22">
-        <v>55.34772097331544</v>
-      </c>
-      <c r="O16" s="22">
-        <v>54.153125227810904</v>
-      </c>
-      <c r="P16" s="22">
-        <v>52.653193514628271</v>
-      </c>
-      <c r="Q16" s="22">
-        <v>50.960129159042118</v>
-      </c>
-      <c r="R16" s="20">
-        <v>51.222668772486344</v>
-      </c>
-      <c r="S16" s="20">
-        <v>47.924992642242273</v>
-      </c>
-      <c r="T16" s="20">
-        <v>47.185380176485516</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>58.055630047455239</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <v>58.899364244278871</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>59.017822411187147</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>56.849335208212878</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>57.14778053609799</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <v>59.010095269137828</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>58.223216933657007</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <v>38.320908713640691</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="23">
         <v>39.36253445708104</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="24">
         <v>40.123370281738325</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="24">
         <v>39.650231634921276</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="25">
         <v>40.544009091195292</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="25">
         <v>42.973448007054493</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="25">
         <v>43.517774104185769</v>
       </c>
-      <c r="P17" s="26">
+      <c r="P17" s="25">
         <v>44.697761479974616</v>
       </c>
-      <c r="Q17" s="26">
+      <c r="Q17" s="25">
         <v>41.183615695245948</v>
       </c>
-      <c r="R17" s="23">
+      <c r="R17" s="22">
         <v>43.059770781112789</v>
       </c>
-      <c r="S17" s="23">
+      <c r="S17" s="22">
         <v>40.308963698911462</v>
       </c>
-      <c r="T17" s="23">
+      <c r="T17" s="22">
         <v>39.772824176363727</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1">
+      <c r="U17" s="39">
+        <v>43.425696304310883</v>
+      </c>
+      <c r="V17" s="51">
+        <v>43.461739900063506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A19" s="38" t="s">
+    <row r="19" spans="1:24" s="42" customFormat="1" ht="90" customHeight="1">
+      <c r="A19" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+    </row>
+    <row r="20" spans="1:24" ht="30" customHeight="1">
+      <c r="A20" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-    </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1">
-      <c r="A20" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:24">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
@@ -1749,29 +1866,8 @@
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A19:T19"/>
-    <mergeCell ref="A20:T20"/>
-  </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.43307086614173229" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
